--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.3474100939290091</v>
+        <v>0.3657440749772013</v>
       </c>
       <c r="D2">
-        <v>0.7283267938324318</v>
+        <v>0.7180493144005826</v>
       </c>
       <c r="E2">
         <v>0.6448826040637152</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.2057932260568104</v>
+        <v>-0.2290136610879999</v>
       </c>
       <c r="D3">
-        <v>0.8369773812865824</v>
+        <v>0.8209738576604484</v>
       </c>
       <c r="E3">
         <v>0.6448826040637152</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.04793285161980106</v>
+        <v>-0.05391290380741177</v>
       </c>
       <c r="D4">
-        <v>0.9617754583632598</v>
+        <v>0.9574911437805844</v>
       </c>
       <c r="E4">
         <v>0.6448826040637152</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.6193165803053808</v>
+        <v>-0.637776099894246</v>
       </c>
       <c r="D5">
-        <v>0.5357918482367046</v>
+        <v>0.5302021728374311</v>
       </c>
       <c r="E5">
         <v>0.6448826040637152</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.5210443548503138</v>
+        <v>-0.4787898061666366</v>
       </c>
       <c r="D6">
-        <v>0.6024045835577452</v>
+        <v>0.6368124824370343</v>
       </c>
       <c r="E6">
         <v>0.6375424972844459</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.34799772367153</v>
+        <v>-0.2783401071444002</v>
       </c>
       <c r="D7">
-        <v>0.72788551631578</v>
+        <v>0.7833506196637554</v>
       </c>
       <c r="E7">
         <v>0.6375424972844459</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.8953633507287319</v>
+        <v>-0.7165546760659749</v>
       </c>
       <c r="D8">
-        <v>0.3707212259390031</v>
+        <v>0.4811871872133406</v>
       </c>
       <c r="E8">
         <v>0.6375424972844459</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.1538165360812336</v>
+        <v>0.1306181287354911</v>
       </c>
       <c r="D9">
-        <v>0.8777728800112394</v>
+        <v>0.8972644317933072</v>
       </c>
       <c r="E9">
         <v>0.6495125875781796</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.357983184746805</v>
+        <v>-0.2927998974778782</v>
       </c>
       <c r="D10">
-        <v>0.7204008957015304</v>
+        <v>0.772418964966223</v>
       </c>
       <c r="E10">
         <v>0.6495125875781796</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.5148381764063723</v>
+        <v>-0.4224565701322059</v>
       </c>
       <c r="D11">
-        <v>0.6067338717977395</v>
+        <v>0.6767920765556044</v>
       </c>
       <c r="E11">
         <v>0.6459693325598701</v>
